--- a/static-resource/configValueResource.xlsx
+++ b/static-resource/configValueResource.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsonp/Documents/big-rich/big-rich-doc/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsonp/Documents/GitHub/netty-game-server/static-resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9264F4C-4A76-A143-83A5-8BA9E29E4547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="6700" windowWidth="28160" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="900" windowWidth="28160" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>configValue</t>
   </si>
@@ -50,9 +51,6 @@
     <t>DICE_RANGE</t>
   </si>
   <si>
-    <t>[1,6]</t>
-  </si>
-  <si>
     <t>单个骰子的点数范围 [最小,最大]</t>
   </si>
   <si>
@@ -66,12 +64,18 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>{[0,6]}</t>
+  </si>
+  <si>
+    <t>{1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -134,6 +138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,13 +428,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,10 +461,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -468,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/static-resource/configValueResource.xlsx
+++ b/static-resource/configValueResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsonp/Documents/GitHub/netty-game-server/static-resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9264F4C-4A76-A143-83A5-8BA9E29E4547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37062AC2-4A98-6649-84CA-C12A614F3D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="900" windowWidth="28160" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>configValue</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>{1}</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>数据class</t>
+  </si>
+  <si>
+    <t>clz</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>ARRAY</t>
   </si>
 </sst>
 </file>
@@ -409,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,12 +442,12 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -436,8 +457,14 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -447,8 +474,14 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -458,8 +491,14 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -469,8 +508,14 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -479,6 +524,12 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
